--- a/TopCryptoReport.xlsx
+++ b/TopCryptoReport.xlsx
@@ -464,15 +464,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38897.17</v>
+        <v>40891.87</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-3.5%</t>
+          <t>1.73%</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1410.78</v>
+        <v>695.4</v>
       </c>
     </row>
     <row r="3">
@@ -487,15 +487,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2916.03</v>
+        <v>3029</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-4.04%</t>
+          <t>-0.41%</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-122.77</v>
+        <v>-12.47</v>
       </c>
     </row>
     <row r="4">
@@ -510,15 +510,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.0003</v>
+        <v>1.00047</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>0.02%</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -533,15 +533,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>397.679</v>
+        <v>416.533</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-4.39%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-18.26</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="6">
@@ -556,15 +556,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.99949</v>
+        <v>1.00007</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
